--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3410.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3410.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.36950790820222</v>
+        <v>1.934983372688293</v>
       </c>
       <c r="B1">
-        <v>1.765454386477575</v>
+        <v>5.930744647979736</v>
       </c>
       <c r="C1">
-        <v>2.67104900961362</v>
+        <v>3.379580736160278</v>
       </c>
       <c r="D1">
-        <v>6.375742025947322</v>
+        <v>1.441963195800781</v>
       </c>
       <c r="E1">
-        <v>1.678049145276322</v>
+        <v>0.9677280187606812</v>
       </c>
     </row>
   </sheetData>
